--- a/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
+++ b/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
@@ -19,9 +19,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="120">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段01620000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段01520000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段01490000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段00530001地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段00620001地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段蘆竹濫小段02880000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段蘆竹濫小段03020000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段蘆竹濫小段02900000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段蘆竹濫小段00620003地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區開明段一小段05840000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區憲德段二小段00260004地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之149</t>
+  </si>
+  <si>
+    <t>10000分之50</t>
+  </si>
+  <si>
+    <t>許陽明</t>
+  </si>
+  <si>
+    <t>管碧玲</t>
+  </si>
+  <si>
+    <t>60年09月16日</t>
+  </si>
+  <si>
+    <t>60年09月06日</t>
+  </si>
+  <si>
+    <t>88年08月10日</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(買賣(土地與建物共3筆合計））</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-16</t>
+  </si>
+  <si>
+    <t>tmp32301</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,118 +174,37 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市新店區直潭段赤皮湖小 段0162-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段赤皮湖小 段0152-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段赤皮湖小 段0149-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段赤皮湖小 段0053-0001地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段赤皮湖小 段0062-0001地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段蘆竹濫小 段0288-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段蘆竹濫小 段0302-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段蘆竹濫小 段0290-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段蘆竹濫小 段0062-0003地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段一小段 0584-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區憲德段二小段 0026-0004 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 149</t>
-  </si>
-  <si>
-    <t>10000分之 50</t>
-  </si>
-  <si>
-    <t>許陽明</t>
-  </si>
-  <si>
-    <t>管碧玲</t>
-  </si>
-  <si>
-    <t>60年09月 16日</t>
-  </si>
-  <si>
-    <t>60年09月 06日</t>
-  </si>
-  <si>
-    <t>88年08月 10日</t>
-  </si>
-  <si>
-    <t>99年09月 17日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(買賣(土 地與建物 共3筆合 計））</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>臺北市北投區開明段一小段</t>
   </si>
   <si>
-    <t>臺北市北投區開明段一小段 11567-000建號（陽台）</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段一小段 11599-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮fe憲德段二小段 02239-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區憲德段二小段 02353-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 58</t>
+    <t>臺北市北投區開明段一小段11567000建號（陽台）</t>
+  </si>
+  <si>
+    <t>臺北市北投區開明段一小段11599000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮fe憲德段二小段02239000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區憲德段二小段02353000建號</t>
+  </si>
+  <si>
+    <t>10000分之58</t>
   </si>
   <si>
     <t>88年08月</t>
   </si>
   <si>
-    <t>99年09月 17曰</t>
+    <t>99年09月17曰</t>
   </si>
   <si>
     <t>(超過五年（總</t>
   </si>
   <si>
-    <t>12,500,000( 土地及建物共 3筆合計）</t>
-  </si>
-  <si>
-    <t>12，500,000( 土地及建物共 3齡計）</t>
+    <t>12500000(土地及建物共3筆合計）</t>
+  </si>
+  <si>
+    <t>12500000(土地及建物共3齡計）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -168,10 +219,10 @@
     <t>登記（取得)時間</t>
   </si>
   <si>
-    <t>LEXUS ES330</t>
-  </si>
-  <si>
-    <t>94年06月 23日</t>
+    <t>LEXUSES330</t>
+  </si>
+  <si>
+    <t>94年06月23日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -192,28 +243,28 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行西門分 行</t>
+    <t>合作金庫商業銀行西門分行</t>
   </si>
   <si>
     <t>高雄銀行市府分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行中正分 行</t>
-  </si>
-  <si>
-    <t>高雄市府郵局(第1 g支局 )</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行十全分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行北投分 行</t>
+    <t>國泰世華商業銀行中正分行</t>
+  </si>
+  <si>
+    <t>高雄市府郵局(第1g支局)</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行十全分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行北投分行</t>
   </si>
   <si>
     <t>陽信商業銀行大屯分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行長春分 行</t>
+    <t>合作金庫商業銀行長春分行</t>
   </si>
   <si>
     <t>臺灣銀行北投分行</t>
@@ -255,22 +306,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相&gt;當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相&gt;當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -300,31 +351,31 @@
     <t>借款</t>
   </si>
   <si>
-    <t>合作金庫西門支庫 臺北市萬華區昆明街</t>
-  </si>
-  <si>
-    <t>高雄銀行三民分行 高雄市三民區博愛一路</t>
-  </si>
-  <si>
-    <t>管東隆 彰化縣員林鎮林森路</t>
-  </si>
-  <si>
-    <t>吳麗珠 臺北市大安區和平東路</t>
-  </si>
-  <si>
-    <t>7，473,463</t>
-  </si>
-  <si>
-    <t>88年09‘月 17日</t>
-  </si>
-  <si>
-    <t>97年09月 01曰</t>
-  </si>
-  <si>
-    <t>97年09月 16日</t>
-  </si>
-  <si>
-    <t>98年07月 07日</t>
+    <t>合作金庫西門支庫臺北市萬華區昆明街</t>
+  </si>
+  <si>
+    <t>高雄銀行三民分行高雄市三民區博愛一路</t>
+  </si>
+  <si>
+    <t>管東隆彰化縣員林鎮林森路</t>
+  </si>
+  <si>
+    <t>吳麗珠臺北市大安區和平東路</t>
+  </si>
+  <si>
+    <t>7473463</t>
+  </si>
+  <si>
+    <t>88年09‘月17日</t>
+  </si>
+  <si>
+    <t>97年09月01曰</t>
+  </si>
+  <si>
+    <t>97年09月16日</t>
+  </si>
+  <si>
+    <t>98年07月07日</t>
   </si>
   <si>
     <t>購買房屋</t>
@@ -686,13 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,291 +765,543 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>5301</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>873</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2701</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1072</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1896</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1324</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2250</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>5456</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>485</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="2">
         <v>22</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>2997</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="2">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>4878.79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2">
         <v>12500000</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1016,25 +1319,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1042,25 +1345,25 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>90.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1068,25 +1371,25 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>11.63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1094,25 +1397,25 @@
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>2570.08</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1120,25 +1423,25 @@
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>175.59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1146,25 +1449,25 @@
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>21696.77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1182,22 +1485,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1205,22 +1508,22 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>3311</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1238,22 +1541,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1261,16 +1564,16 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1282,16 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1303,16 +1606,16 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1324,16 +1627,16 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1345,16 +1648,16 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1366,16 +1669,16 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1387,16 +1690,16 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1408,16 +1711,16 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1429,16 +1732,16 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1450,16 +1753,16 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1471,16 +1774,16 @@
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
         <v>4004</v>
@@ -1504,22 +1807,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1527,14 +1830,14 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1544,22 +1847,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1577,19 +1880,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1598,22 +1901,22 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>908219</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1621,22 +1924,22 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1644,22 +1947,22 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1667,22 +1970,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2">
         <v>700000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1690,22 +1993,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2">
         <v>400000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
+++ b/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市新店區直潭段赤皮湖小段01620000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區直潭段赤皮湖小段01520000地號</t>
@@ -114,9 +117,6 @@
     <t>管碧玲</t>
   </si>
   <si>
-    <t>60年09月16日</t>
-  </si>
-  <si>
     <t>60年09月06日</t>
   </si>
   <si>
@@ -153,30 +153,15 @@
     <t>tmp32301</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市北投區開明段一小段</t>
   </si>
   <si>
+    <t>88年08月</t>
+  </si>
+  <si>
+    <t>(超過五年（總</t>
+  </si>
+  <si>
     <t>臺北市北投區開明段一小段11567000建號（陽台）</t>
   </si>
   <si>
@@ -192,168 +177,111 @@
     <t>10000分之58</t>
   </si>
   <si>
-    <t>88年08月</t>
-  </si>
-  <si>
     <t>99年09月17曰</t>
   </si>
   <si>
-    <t>(超過五年（總</t>
-  </si>
-  <si>
     <t>12500000(土地及建物共3筆合計）</t>
   </si>
   <si>
     <t>12500000(土地及建物共3齡計）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>LEXUSES330</t>
+  </si>
+  <si>
+    <t>94年06月23日</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行西門分行</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中正分行</t>
+  </si>
+  <si>
+    <t>高雄市府郵局(第1g支局)</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行十全分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行北投分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行大屯分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行長春分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行北投分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相&gt;當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>LEXUSES330</t>
-  </si>
-  <si>
-    <t>94年06月23日</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行西門分行</t>
-  </si>
-  <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中正分行</t>
-  </si>
-  <si>
-    <t>高雄市府郵局(第1g支局)</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行十全分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行北投分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行大屯分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行長春分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行北投分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相&gt;當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>合作金庫西門支庫臺北市萬華區昆明街</t>
+  </si>
+  <si>
+    <t>88年09‘月17日</t>
+  </si>
+  <si>
+    <t>購買房屋</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
-    <t>合作金庫西門支庫臺北市萬華區昆明街</t>
-  </si>
-  <si>
     <t>高雄銀行三民分行高雄市三民區博愛一路</t>
   </si>
   <si>
@@ -366,9 +294,6 @@
     <t>7473463</t>
   </si>
   <si>
-    <t>88年09‘月17日</t>
-  </si>
-  <si>
     <t>97年09月01曰</t>
   </si>
   <si>
@@ -376,9 +301,6 @@
   </si>
   <si>
     <t>98年07月07日</t>
-  </si>
-  <si>
-    <t>購買房屋</t>
   </si>
 </sst>
 </file>
@@ -737,13 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,25 +708,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>5301</v>
+        <v>873</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>35</v>
@@ -822,7 +750,7 @@
         <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>1374</v>
@@ -831,24 +759,30 @@
         <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>218.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>873</v>
+        <v>2701</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -869,7 +803,7 @@
         <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>1374</v>
@@ -878,24 +812,30 @@
         <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>675.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2701</v>
+        <v>1072</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>32</v>
@@ -916,7 +856,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>1374</v>
@@ -925,30 +865,36 @@
         <v>43</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1072</v>
+        <v>1896</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>39</v>
@@ -963,7 +909,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>1374</v>
@@ -972,24 +918,30 @@
         <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1896</v>
+        <v>1324</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
@@ -1010,7 +962,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>1374</v>
@@ -1019,30 +971,36 @@
         <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1324</v>
+        <v>2250</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>39</v>
@@ -1057,7 +1015,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
         <v>1374</v>
@@ -1066,24 +1024,30 @@
         <v>43</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2250</v>
+        <v>5456</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>32</v>
@@ -1104,7 +1068,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
         <v>1374</v>
@@ -1113,24 +1077,30 @@
         <v>43</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>5456</v>
+        <v>485</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>32</v>
@@ -1151,7 +1121,7 @@
         <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <v>1374</v>
@@ -1160,30 +1130,36 @@
         <v>43</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>121.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>485</v>
+        <v>2997</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>39</v>
@@ -1198,7 +1174,7 @@
         <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>1374</v>
@@ -1207,33 +1183,39 @@
         <v>43</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0149</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>44.6553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>2997</v>
+        <v>4878.79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12500000</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>40</v>
@@ -1245,7 +1227,7 @@
         <v>42</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>1374</v>
@@ -1254,54 +1236,13 @@
         <v>43</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4878.79</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="2">
-        <v>12500000</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1374</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="2">
-        <v>24</v>
+      <c r="P11" s="2">
+        <v>0.005</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>24.39395</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1321,66 +1262,66 @@
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>90.86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
-        <v>90.86</v>
+        <v>11.63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
-        <v>11.63</v>
+        <v>2570.08</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -1394,13 +1335,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
-        <v>2570.08</v>
+        <v>175.59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -1409,65 +1350,39 @@
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21696.77</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2">
-        <v>175.59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2">
-        <v>21696.77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1476,6 +1391,282 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3311</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2181267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>109999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>61239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>417453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>238177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>30904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>107480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4004</v>
+      </c>
+      <c r="G11" s="2">
+        <v>122250.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1485,45 +1676,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3311</v>
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1531,9 +1716,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1541,474 +1726,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="E1" s="1">
+        <v>908219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2181267</v>
+        <v>90</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>109999</v>
+        <v>88</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>61239</v>
+        <v>89</v>
+      </c>
+      <c r="E4" s="2">
+        <v>700000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>417453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>238177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>66</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>9792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>30904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>68</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>107480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>69</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4004</v>
-      </c>
-      <c r="G12" s="2">
-        <v>122250.13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="2">
-        <v>908219</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>112</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>113</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>114</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="2">
-        <v>700000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>115</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="2">
-        <v>400000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
+++ b/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市新店區直潭段赤皮湖小段01620000地號</t>
+  </si>
+  <si>
     <t>新北市新店區直潭段赤皮湖小段01520000地號</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t>管碧玲</t>
   </si>
   <si>
+    <t>60年09月16日</t>
+  </si>
+  <si>
     <t>60年09月06日</t>
   </si>
   <si>
@@ -156,28 +162,28 @@
     <t>臺北市北投區開明段一小段</t>
   </si>
   <si>
+    <t>臺北市北投區開明段一小段11567000建號（陽台）</t>
+  </si>
+  <si>
+    <t>臺北市北投區開明段一小段11599000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮fe憲德段二小段02239000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區憲德段二小段02353000建號</t>
+  </si>
+  <si>
+    <t>10000分之58</t>
+  </si>
+  <si>
     <t>88年08月</t>
   </si>
   <si>
+    <t>99年09月17曰</t>
+  </si>
+  <si>
     <t>(超過五年（總</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段一小段11567000建號（陽台）</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段一小段11599000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮fe憲德段二小段02239000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區憲德段二小段02353000建號</t>
-  </si>
-  <si>
-    <t>10000分之58</t>
-  </si>
-  <si>
-    <t>99年09月17曰</t>
   </si>
   <si>
     <t>12500000(土地及建物共3筆合計）</t>
@@ -659,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,531 +723,584 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>873</v>
+        <v>5301</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>1374</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.25</v>
       </c>
       <c r="Q2" s="2">
-        <v>218.25</v>
+        <v>1325.25</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2701</v>
+        <v>873</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>1374</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.25</v>
       </c>
       <c r="Q3" s="2">
-        <v>675.25</v>
+        <v>218.25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1072</v>
+        <v>2701</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>1374</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.25</v>
       </c>
       <c r="Q4" s="2">
-        <v>268</v>
+        <v>675.25</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1896</v>
+        <v>1072</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>1374</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" s="2">
-        <v>1896</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1324</v>
+        <v>1896</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>1374</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>331</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2250</v>
+        <v>1324</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>1374</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.25</v>
       </c>
       <c r="Q7" s="2">
-        <v>562.5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>5456</v>
+        <v>2250</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2">
         <v>1374</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.25</v>
       </c>
       <c r="Q8" s="2">
-        <v>1364</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>485</v>
+        <v>5456</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2">
         <v>1374</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.25</v>
       </c>
       <c r="Q9" s="2">
-        <v>121.25</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>2997</v>
+        <v>485</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2">
         <v>1374</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0149</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" s="2">
-        <v>44.6553</v>
+        <v>121.25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>4878.79</v>
+        <v>2997</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2">
-        <v>12500000</v>
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="2">
         <v>1374</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0149</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>44.6553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4878.79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12500000</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="2">
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="2">
         <v>24</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P12" s="2">
         <v>0.005</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q12" s="2">
         <v>24.39395</v>
       </c>
     </row>
@@ -1252,137 +1311,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2">
+        <v>90.86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1">
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>90.86</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>11.63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2570.08</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2570.08</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2">
+        <v>33</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0149</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>38.294192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2">
+        <v>175.59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2">
         <v>34</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>175.59</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>21696.77</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2">
+        <v>35</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0058</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>125.841266</v>
       </c>
     </row>
   </sheetData>
@@ -1391,282 +1638,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3311</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2181267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>109999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>61239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>61</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>417453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>62</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>238177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>63</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>65</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>66</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>9792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>67</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>30904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>107480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4004</v>
-      </c>
-      <c r="G11" s="2">
-        <v>122250.13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1676,39 +1647,376 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3311</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3311</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2181267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>2181267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>109999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>61239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>417453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>238177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>30904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>107480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4004</v>
+      </c>
+      <c r="G12" s="2">
+        <v>122250.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,114 +2034,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1">
         <v>908219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2">
+        <v>908219</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3000000</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
-        <v>700000</v>
+        <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="2">
+        <v>700000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>115</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="2">
         <v>400000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>86</v>
+      <c r="F6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
+++ b/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>12500000(土地及建物共3齡計）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>LEXUSES330</t>
@@ -1639,38 +1642,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1">
-        <v>3311</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>3311</v>
@@ -1679,13 +1703,34 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1703,13 +1748,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1724,13 +1769,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1745,13 +1790,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1766,13 +1811,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1787,13 +1832,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1808,13 +1853,13 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1829,13 +1874,13 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1850,13 +1895,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1871,13 +1916,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1892,13 +1937,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1913,13 +1958,13 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1934,13 +1979,13 @@
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -1967,14 +2012,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1984,16 +2029,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2001,22 +2046,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2034,22 +2079,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>908219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2057,22 +2102,22 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>908219</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2080,22 +2125,22 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2103,22 +2148,22 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2126,22 +2171,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>700000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2149,22 +2194,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>400000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
+++ b/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -192,6 +192,9 @@
     <t>12500000(土地及建物共3齡計）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
   </si>
   <si>
     <t>94年06月23日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1396,7 +1402,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>43</v>
@@ -1449,7 +1455,7 @@
         <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>43</v>
@@ -1502,7 +1508,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>43</v>
@@ -1555,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>43</v>
@@ -1608,7 +1614,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>43</v>
@@ -1653,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1694,7 +1700,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>3311</v>
@@ -1703,7 +1709,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>39</v>
@@ -1712,7 +1718,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1748,13 +1754,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1769,13 +1775,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1790,13 +1796,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1811,13 +1817,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1832,13 +1838,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1853,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1874,13 +1880,13 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1895,13 +1901,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1916,13 +1922,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1937,13 +1943,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1958,13 +1964,13 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1979,13 +1985,13 @@
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -2012,14 +2018,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2029,16 +2035,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2046,22 +2052,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2079,22 +2085,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>908219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2102,22 +2108,22 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>908219</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2125,22 +2131,22 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2148,22 +2154,22 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2171,22 +2177,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>700000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2194,22 +2200,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>400000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
+++ b/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -207,52 +207,64 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行西門分行</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中正分行</t>
+  </si>
+  <si>
+    <t>高雄市府郵局(第1g支局)</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行十全分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行北投分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行大屯分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行長春分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行北投分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行西門分行</t>
-  </si>
-  <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中正分行</t>
-  </si>
-  <si>
-    <t>高雄市府郵局(第1g支局)</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行十全分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行北投分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行大屯分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行長春分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行北投分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及#</t>
@@ -1746,13 +1758,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1763,244 +1775,482 @@
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2181267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2181267</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>109999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>61239</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>417453</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>238177</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>994</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
         <v>63</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1238</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>9792</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>30904</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>107480</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2">
-        <v>4004</v>
-      </c>
-      <c r="G12" s="2">
         <v>122250.13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2018,14 +2268,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2035,16 +2285,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2052,22 +2302,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2085,22 +2335,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>908219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2108,22 +2358,22 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>908219</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2131,22 +2381,22 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2154,22 +2404,22 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2177,22 +2427,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>700000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2200,22 +2450,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2">
         <v>400000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
+++ b/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
@@ -11,15 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -265,33 +264,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相&gt;當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -2260,7 +2232,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2271,86 +2243,19 @@
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>908219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2358,22 +2263,22 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>908219</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2381,22 +2286,22 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2404,22 +2309,22 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2427,22 +2332,22 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>700000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2450,22 +2355,22 @@
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>400000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
+++ b/legislator/property/output/normal/管碧玲_2011-12-16_財產申報表_tmp32301.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -266,40 +266,46 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>借款</t>
+  </si>
+  <si>
     <t>合作金庫西門支庫臺北市萬華區昆明街</t>
   </si>
   <si>
+    <t>高雄銀行三民分行高雄市三民區博愛一路</t>
+  </si>
+  <si>
+    <t>管東隆彰化縣員林鎮林森路</t>
+  </si>
+  <si>
+    <t>吳麗珠臺北市大安區和平東路</t>
+  </si>
+  <si>
     <t>88年09‘月17日</t>
   </si>
   <si>
+    <t>97年09月01曰</t>
+  </si>
+  <si>
+    <t>97年09月16日</t>
+  </si>
+  <si>
+    <t>98年07月07日</t>
+  </si>
+  <si>
     <t>購買房屋</t>
   </si>
   <si>
-    <t>借款</t>
-  </si>
-  <si>
-    <t>高雄銀行三民分行高雄市三民區博愛一路</t>
-  </si>
-  <si>
-    <t>管東隆彰化縣員林鎮林森路</t>
-  </si>
-  <si>
-    <t>吳麗珠臺北市大安區和平東路</t>
-  </si>
-  <si>
-    <t>7473463</t>
-  </si>
-  <si>
-    <t>97年09月01曰</t>
-  </si>
-  <si>
-    <t>97年09月16日</t>
-  </si>
-  <si>
-    <t>98年07月07日</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2232,61 +2238,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1">
-        <v>908219</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>908219</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2294,22 +2342,43 @@
       <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>90</v>
+      <c r="E3" s="2">
+        <v>7473463</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -2324,15 +2393,36 @@
         <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2347,15 +2437,36 @@
         <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -2370,7 +2481,28 @@
         <v>93</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="2">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
